--- a/Data/Bank_churn/Images/DTree_ValidationCurve_MinSampleSplit.xlsx
+++ b/Data/Bank_churn/Images/DTree_ValidationCurve_MinSampleSplit.xlsx
@@ -462,10 +462,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.84</v>
+      </c>
       <c r="D2" t="n">
         <v>0.03</v>
       </c>
@@ -475,53 +479,53 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="C3" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="C4" t="n">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="C5" t="n">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
